--- a/medicine/Enfance/Anne_Robillard/Anne_Robillard.xlsx
+++ b/medicine/Enfance/Anne_Robillard/Anne_Robillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Robillard, née le 9 février 1955 à Longueuil au Québec, est une écrivaine québécoise de fantasy.
 Elle est connue notamment pour Les Chevaliers d'Émeraude, une saga se déroulant sur le continent d'Enkidiev, un monde magique que les Chevaliers d'Émeraude devront protéger.
@@ -513,13 +525,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille aînée de la professeure de ballet Pierrette Gagné et du comédien Jean-Claude Robillard, Anne Robillard a grandi dans la magie des arts de la scène, mais aussi dans l'insécurité du métier d'artiste. Tout en continuant d'écrire des histoires sorties tout droit de son imagination, elle a opté pour un style de vie plus stable. Son salaire de secrétaire juridique lui a permis de poursuivre des études de littérature et de traduction à l'université de Montréal et de continuer à composer.
 Le fantastique et la fantaisie ont toujours fait partie de ses écrits. Adolescente, elle a découvert le monde magique de J. R. R. Tolkien (Bilbo le Hobbit, Le Seigneur des anneaux). Même dans ses textes les plus dramatiques, le surnaturel a toujours trouvé sa place. La guérison miraculeuse, la réincarnation, l'invisible, la magie, les fées et les chevaliers sont rapidement devenus ses thèmes préférés. Mais, à l'époque, le public n'était pas encore prêt à savourer ses récits fantaisistes : il lui fallut envoyer ses manuscrits à plusieurs reprises (une trentaine de fois) mais aucun éditeur ne voulut de ses écrits. Elle n'a pas perdu courage pour autant et a continué à créer des mondes merveilleux emportant ses amis et sa famille loin de leur réalité quotidienne.
 Le premier tome des Chevaliers d'Émeraude est publié par les Éditions de Mortagne en octobre 2002, rapidement suivi de plusieurs aventures de ces soldats magiques. Douze tomes ont été publiés. Anne Robillard a aussi écrit d'autres romans dont Qui est Terra Wilder ?. En 2007, elle entreprend l'écriture d'une nouvelle série, A.N.G.E., qui compte dix tomes. En 2011, elle entreprend l'écriture d'une nouvelle série, Les Ailes d'Alexanne. Elle crée aussi une suite à la série Les Chevaliers d'Émeraude intitulée Les Héritiers d'Enkidiev.
 En entrevue à l'émission Tout le monde en parle de Radio-Canada, elle a expliqué comment lui est venu son inspiration pour la série des Chevaliers d'Émeraude. Elle a tout simplement rencontré en rêve un personnage principal de son roman qui lui a expliqué les grandes lignes de ses aventures fantastiques. Elle a ensuite brodé autour en utilisant son imagination pour explorer la psychologie de ses personnages et leurs vies vides de sens.
-Après la fin de sa mythique saga avec Les Héritiers d'Enkidiev, elle se lance dans une suite avec Les Chevaliers d'Antarès, dont le premier tome est paru en février 2016[1], dans un monde médiévalo-fantastique où plusieurs peuplades étranges se font envahir par de mystérieuses créatures.
+Après la fin de sa mythique saga avec Les Héritiers d'Enkidiev, elle se lance dans une suite avec Les Chevaliers d'Antarès, dont le premier tome est paru en février 2016, dans un monde médiévalo-fantastique où plusieurs peuplades étranges se font envahir par de mystérieuses créatures.
 </t>
         </is>
       </c>
@@ -550,9 +564,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Les Chevaliers d'Émeraude
-Série Les Chevaliers d'Émeraude
-Privilège de roi, Wellan Inc., 2010, 246 p.  (ISBN 978-2-9810428-3-5)Coécrit avec Martial Grisé. Préquelle de la série
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Privilège de roi, Wellan Inc., 2010, 246 p.  (ISBN 978-2-9810428-3-5)Coécrit avec Martial Grisé. Préquelle de la série
 Les Premiers Chevaliers, Wellan Inc., 2020, 320 p.  (ISBN 978-2-925162-23-0)Tome 0
 Le Feu dans le ciel, Mortagne, 2003, 341 p.  (ISBN 978-2-89074-662-6)
 Les Dragons de l'empereur noir, Mortagne, 2003, 430 p.  (ISBN 978-2-89074-672-5)
@@ -565,9 +587,47 @@
 L'Héritage de Danalieth, Mortagne, 2006, 525 p.  (ISBN 978-2-89074-686-2)
 Représailles, Mortagne, 2007, 509 p.  (ISBN 978-2-89074-688-6)
 La Justice céleste, Mortagne, 2007, 478 p.  (ISBN 978-2-89074-690-9)
-Irianeth, Mortagne, 2008, 604 p.  (ISBN 978-2-89074-692-3)
-Série Les Héritiers d'Enkidiev
-Renaissance, Wellan Inc., 2010, 459 p.  (ISBN 978-2-9810428-2-8)
+Irianeth, Mortagne, 2008, 604 p.  (ISBN 978-2-89074-692-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Héritiers d'Enkidiev</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Renaissance, Wellan Inc., 2010, 459 p.  (ISBN 978-2-9810428-2-8)
 Nouveau Monde, Wellan Inc., 2010, 471 p.  (ISBN 978-2-9810428-5-9)
 Les Dieux ailés, Wellan Inc., 2011, 480 p.  (ISBN 978-2-9810428-8-0)
 Le Sanctuaire, Wellan Inc., 2011, 448 p.  (ISBN 978-2-923925-02-8)
@@ -578,9 +638,47 @@
 Mirages, Wellan Inc., 2014, 456 p.  (ISBN 978-2-923925-62-2)
 Déchéance, Wellan Inc., 2014, 451 p.  (ISBN 978-2-923925-64-6)
 Double Allégeance, Wellan Inc., 2015, 456 p.  (ISBN 978-2-924442-28-9)
-Kimaati, Wellan Inc., 2015, 416 p.  (ISBN 978-2-924442-45-6)
-Série Les Chevaliers d'Antarès
-Descente aux enfers, Wellan Inc., 2016, 343 p.  (ISBN 978-2-924442-48-7)
+Kimaati, Wellan Inc., 2015, 416 p.  (ISBN 978-2-924442-45-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Les Chevaliers d'Antarès</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Descente aux enfers, Wellan Inc., 2016, 343 p.  (ISBN 978-2-924442-48-7)
 Basilics, Wellan Inc., 2016, 343 p.  (ISBN 978-2-924442-49-4)
 Manticores, Wellan Inc., 2016, 336 p.  (ISBN 978-2-924442-50-0)
 Chimères, Wellan Inc., 2016, 344 p.  (ISBN 978-2-924442-57-9)
@@ -591,32 +689,214 @@
 Justiciers, Wellan Inc., 2018, 344 p.  (ISBN 978-2-924442-62-3)
 La Tourmente, Wellan Inc., 2018, 344 p.  (ISBN 978-2-924442-63-0)
 Alliance, Wellan Inc., 2018, 344 p.  (ISBN 978-2-924442-64-7)
-La Prophétie, Wellan Inc., 2018, 344 p.  (ISBN 978-2-924442-65-4)
-Série Légendes d'Ashur-Sîn
-Aranéa, Wellan Inc., 2021, 344 p.  (ISBN 978-2-924442-85-2)
+La Prophétie, Wellan Inc., 2018, 344 p.  (ISBN 978-2-924442-65-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Légendes d'Ashur-Sîn</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aranéa, Wellan Inc., 2021, 344 p.  (ISBN 978-2-924442-85-2)
 Azakhou, Wellan Inc., 2021, 320 p.  (ISBN 978-2-924442-86-9)
 Dingirsigs, Wellan Inc., 2021, 304 p.  (ISBN 978-2-924442-87-6)
 Antoum, Wellan Inc., 2021, 312 p.  (ISBN 978-2-924442-88-3)
 Naroux, Wellan Inc., 2022, 320 p.  (ISBN 978-2-924442-91-3)
 Cinn, Wellan Inc., 2022, 321 p.  (ISBN 978-2-924442-92-0)
-Naja, Wellan Inc., 2022, 312 p.  (ISBN 978-2-924442-93-7)
-Série Les Magiciens d'Enkidiev
-Anthel, Wellan Inc., 2023, 312 p.  (ISBN 978-2-925162-13-1)
+Naja, Wellan Inc., 2022, 312 p.  (ISBN 978-2-924442-93-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les Magiciens d'Enkidiev</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Anthel, Wellan Inc., 2023, 312 p.  (ISBN 978-2-925162-13-1)
 Mériador, Wellan Inc., 2023, 320 p.  (ISBN 9782925162193)
-Sayek, Wellan Inc., 2024, 320 p.  (ISBN 9782925162261)
-Guides
-Les Fêtes de Parandar, Michel Brûlé, 2008, 256 p.  (ISBN 978-2-89485-428-0)Coécrit avec Brigitte Boucher-Paré. Sous-titré Réjouissances médiévales et secrets du banquet des Chevaliers d'émeraude
+Sayek, Wellan Inc., 2024, 320 p.  (ISBN 9782925162261)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Les Chevaliers d'Émeraude</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Fêtes de Parandar, Michel Brûlé, 2008, 256 p.  (ISBN 978-2-89485-428-0)Coécrit avec Brigitte Boucher-Paré. Sous-titré Réjouissances médiévales et secrets du banquet des Chevaliers d'émeraude
 Enkidiev, un monde à découvrir, Wellan Inc., 2008, 239 p.  (ISBN 978-2-9810428-0-4)Coécrit avec Claudia Robillard.
 Enlilkisar, le nouveau monde, Wellan Inc., 2015, 87 p.  (ISBN 978-2-924442-36-4)Coécrit avec Claudia Robillard et Aurélie Laget.
 Alnilam, le monde parallèle, Wellan Inc., 2018, 108 p.  (ISBN 978-2-924442-25-8)Coécrit avec Claudia Robillard et Aurélie Laget.
 Enkidiev, le monde originel, Wellan Inc., 2020, 128 p.  (ISBN 978-2-924442-80-7)Coécrit avec Claudia Robillard et Aurélie Laget.
-Le Monde d'Ashur-Sîn, le peuple de la lune, Wellan Inc., 2022, 60 p.  (ISBN 978-2-924442-99-9)Coécrit avec Claudia Robillard et Aurélie Laget.
-Série Terra Wilder
-Qui est Terra Wilder ?, Mortagne, 2006, 622 p.  (ISBN 978-2-89074-716-6)
+Le Monde d'Ashur-Sîn, le peuple de la lune, Wellan Inc., 2022, 60 p.  (ISBN 978-2-924442-99-9)Coécrit avec Claudia Robillard et Aurélie Laget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Terra Wilder</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Qui est Terra Wilder ?, Mortagne, 2006, 622 p.  (ISBN 978-2-89074-716-6)
 Capitaine Wilder, Mortagne, 2009, 541 p.  (ISBN 978-2-89074-805-7)
-Béthanie Wilder, Wellan Inc., 2022, 392 p.  (ISBN 978-2-925162-12-4)
-Série A.N.G.E.
-Antichristus, Lanctôt, 2007, 336 p.  (ISBN 978-2-89485-370-2)
+Béthanie Wilder, Wellan Inc., 2022, 392 p.  (ISBN 978-2-925162-12-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série A.N.G.E.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Antichristus, Lanctôt, 2007, 336 p.  (ISBN 978-2-89485-370-2)
 Reptilis, Lanctôt, 2007, 352 p.  (ISBN 978-2-89485-379-5)
 Perfidia, Michel Brûlé, 2007, 368 p.  (ISBN 978-2-89485-399-3)
 Sicarius, Michel Brûlé, 2008, 360 p.  (ISBN 978-2-89485-415-0)
@@ -625,11 +905,83 @@
 Absinthium, Wellan Inc., 2010, 349 p.  (ISBN 978-2-9810428-4-2)
 Periculum, Wellan Inc., 2010, 330 p.  (ISBN 978-2-9810428-6-6)
 Cenotaphium, Wellan Inc., 2011, 332 p.  (ISBN 978-2-9810428-9-7)
-Obscuritas, Wellan Inc., 2012, 352 p.  (ISBN 978-2-923925-04-2)
-Guide
-A.N.G.E. Personnel autorisé seulement, Wellan Inc., 2011, 280 p.  (ISBN 978-2-923925-03-5)Coécrit avec Claudia Robillard.
-Série Les Ailes d'Alexanne
-4 h 44, Guy Saint-Jean, 2010, 312 p.  (ISBN 978-2-89455-350-3)
+Obscuritas, Wellan Inc., 2012, 352 p.  (ISBN 978-2-923925-04-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série A.N.G.E.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A.N.G.E. Personnel autorisé seulement, Wellan Inc., 2011, 280 p.  (ISBN 978-2-923925-03-5)Coécrit avec Claudia Robillard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Les Ailes d'Alexanne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>4 h 44, Guy Saint-Jean, 2010, 312 p.  (ISBN 978-2-89455-350-3)
 Mikal, Guy Saint-Jean, 2010, 319 p.  (ISBN 978-2-89455-364-0)
 Le Faucheur, Guy Saint-Jean, 2011, 327 p.  (ISBN 978-2-89455-475-3)
 Sara-Anne, Guy Saint-Jean, 2013, 327 p.  (ISBN 978-2-89455-606-1)
@@ -638,9 +990,43 @@
 James, Guy Saint-Jean, 2016, 335 p.  (ISBN 978-2-89758-222-7)
 Alba, Guy Saint-Jean, 2018, 327 p.  (ISBN 978-2-89758-429-0)
 Éire, Guy Saint-Jean, 2019, 329 p.  (ISBN 978-2-89758-418-4)
-Marie, Wellan Inc., 2022, 312 p.  (ISBN 978-2-925162-09-4)
-Série Les Cordes de cristal
-Épisode 1, Wellan Inc., 2012, 172 p.  (ISBN 978-2-923925-16-5)
+Marie, Wellan Inc., 2022, 312 p.  (ISBN 978-2-925162-09-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Les Cordes de cristal</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Épisode 1, Wellan Inc., 2012, 172 p.  (ISBN 978-2-923925-16-5)
 Épisode 2, Wellan Inc., 2012, 180 p.  (ISBN 978-2-923925-56-1)
 Épisode 3, Wellan Inc., 2013, 182 p.  (ISBN 978-2-923925-58-5)
 Épisode 4, Wellan Inc., 2013, 182 p.  (ISBN 978-2-923925-59-2)
@@ -649,27 +1035,201 @@
 Épisode 7, Wellan Inc., 2014, 184 p.  (ISBN 978-2-923925-65-3)
 Épisode 8, Wellan Inc., 2016, 184 p.  (ISBN 978-2-924442-29-6)
 Épisode 9, Wellan Inc., 2016, 176 p.  (ISBN 978-2-924442-30-2)
-Épisode 10, Wellan Inc., 2016, 184 p.  (ISBN 978-2-924442-31-9)
-Série Le Retour de l'oiseau-tonnerre
-L'Éveil, Wellan Inc., 2014, 443 p.  (ISBN 978-2-923925-66-0)
+Épisode 10, Wellan Inc., 2016, 184 p.  (ISBN 978-2-924442-31-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Série Le Retour de l'oiseau-tonnerre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'Éveil, Wellan Inc., 2014, 443 p.  (ISBN 978-2-923925-66-0)
 Perceptions, Wellan Inc., 2015, 368 p.  (ISBN 978-2-924442-27-2)
-L'Envol, Wellan Inc., 2015, 366 p.  (ISBN 978-2-924442-35-7)
-Série La Malédiction des Dragensblöt
-Le Château, Wellan Inc., 2019, 319 p.  (ISBN 978-2-924442-42-5)
+L'Envol, Wellan Inc., 2015, 366 p.  (ISBN 978-2-924442-35-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Série La Malédiction des Dragensblöt</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Château, Wellan Inc., 2019, 319 p.  (ISBN 978-2-924442-42-5)
 Thorfrid et Brynjulf, Wellan Inc., 2019, 320 p.  (ISBN 978-2-924442-68-5)
 Clara et Lionel, Wellan Inc., 2019, 320 p.  (ISBN 978-2-924442-70-8)
 Esther et Isabel, Wellan Inc., 2020, 344 p.  (ISBN 978-2-924442-72-2)
 Ulrik et Andrew, Wellan Inc., 2020, 344 p.  (ISBN 978-2-924442-74-6)
 Rose et Sortiarie, Wellan Inc., 2020, 325 p.  (ISBN 978-2-924442-76-0)
-Samuel et Emily, Wellan Inc., 2020, 327 p.  (ISBN 978-2-924442-78-4)
-Série Maynard Bennett, enquêteur de l'étrange
-L'Affaire Perry, Wellan Inc., 2023, 312 p.  (ISBN 978-2-925162-14-8)
+Samuel et Emily, Wellan Inc., 2020, 327 p.  (ISBN 978-2-924442-78-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Série Maynard Bennett, enquêteur de l'étrange</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L'Affaire Perry, Wellan Inc., 2023, 312 p.  (ISBN 978-2-925162-14-8)
 L'Affaire Lafon, Wellan Inc., 2023, 320 p.  (ISBN 978-2-925162-21-6)
-L'Affaire Johnson, Wellan Inc., 2024, 320 p.  (ISBN 978-2-925162-28-5)
-Guide
-Le Monde des Dragensblöt et sa terrible malédiction..., Wellan Inc., 2020, 59 p.  (ISBN 978-2-924442-84-5)Coécrit avec Claudia Robillard et Aurélie Laget.
-Roman indépendant
-Les Chevaliers d'épées, Wellan Inc., 2019, 367 p.  (ISBN 978-2-924442-33-3)</t>
+L'Affaire Johnson, Wellan Inc., 2024, 320 p.  (ISBN 978-2-925162-28-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Série Maynard Bennett, enquêteur de l'étrange</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Le Monde des Dragensblöt et sa terrible malédiction..., Wellan Inc., 2020, 59 p.  (ISBN 978-2-924442-84-5)Coécrit avec Claudia Robillard et Aurélie Laget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Robillard</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Roman indépendant</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les Chevaliers d'épées, Wellan Inc., 2019, 367 p.  (ISBN 978-2-924442-33-3)</t>
         </is>
       </c>
     </row>
